--- a/docs/assets/disciplinas/LOT2017.xlsx
+++ b/docs/assets/disciplinas/LOT2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Formação dos estudantes de Engenharia Bioquímica na área de tecnologia de enzimas, com foco principal nos estudos de estrutura versus propriedades e mecanismos de ação, controle operacional na purificação e imobilização de enzimas, formas de determinação de atividade enzimática e aplicações das enzimas nos processos industriais.</t>
+    <t>4873328 - Fernando Segato</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4873328 - Fernando Segato</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A disciplina aborda como as enzimas atuam, como se definem as estratégias de purificação e quais são as principais aplicações tecnológicas das enzimas. Dentro dos processos de purificação, o foco envolve a definição de estratégias apropriadas para a purificação em etapas sequenciais, os métodos de controle de cada etapa, além dos métodos de monitoramento da atividade enzimática. Também se aborda a aplicação das enzimas em processos industriais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Origem celular das enzimas: origem das enzimas, diferenciação entre enzimas intra e extracelulares, importância fisiológica e introdução ao mercado mundial de enzimas.2. Estrutura versus propriedades e mecanismos de ação das enzimas: estruturas tridimensionais e sua determinação, importância da estrutura terciária na atividade catalítica, ação catalítica de proteases, glicosidases e oxido-redutases.3. Controle operacional na purificação de enzimas: métodos de extração de enzimas, métodos de purificação preliminar, métodos de separação baseados na carga, no tamanho e na afinidade. Definição de estratégias de purificação de enzimas.4. Métodos de determinação de atividade enzimática: definição de atividade em unidades internacionais, significado da atividade enzimática, formas de quantificar e expressar e atividade enzimática. Requerimentos de um método experimental usado na determinação de atividade enzimática.5. Cinética enzimática: métodos gráficos e numéricos de determinação de velocidade inicial de reação, condições experimentais demandadas para determinar a velocidade inicial, cálculos de atividade enzimática.6. Enzimas imobilizadas: formas de imobilização e aplicações de sistemas imobilizados.7. Aplicações de enzimas na indústria: uso de enzimas em detergentes, no processamento do amido, na indústria alimentícia, na indústria têxtil, na síntese de fármacos e na indústria de celulose e papel.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,31 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1x1 + P2x2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. BON, E.S., FERRARA M.A., CORVO M.L. (Eds.) Enzimas em Biotecnologia - Produção, aplicação e mercado, Rio de Janeiro: Editora Interciêcnia, 2008.
-2. COPELAND, R.A. Enzymes: a practical introduction to structure, mechanism and data analysis, New York: Academic Press, 2000.
-3. LEHNINGER, A.L., NELSON, O.L., COX, M.M. Princípios de bioquímica, 5 ed. Porto Alegre: Artmed editora, 2011.
-4. GODFREY, T., WEST, S. (eds), Industrial Enzymology, New York: Chapman-Hall, 1996.
-5. WHITAKER, J.R. (ed.) Pinciples of Enzynmology for the Food Sciences 2nd ed., New York: Marcel Dekker Inc., 1994.
-6. TANAKA, A., TOSA, T., KOBAYASHI, T. (Eds.). Industrial Application of Immobilized Biocatalysts, New York: Marcel Dekker Inc., 1993.
-6.VOET, D., VOET, J., PRATT, C.W. Fundamentos de Bioquímica. Porto Alegre: Editora ARTMED, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -507,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,34 +617,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -673,93 +661,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2017.xlsx
+++ b/docs/assets/disciplinas/LOT2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Formação dos estudantes de Engenharia Bioquímica na área de tecnologia de enzimas, com foco principal nos estudos de estrutura versus propriedades e mecanismos de ação, controle operacional na purificação e imobilização de enzimas, formas de determinação de atividade enzimática e aplicações das enzimas nos processos industriais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4873328 - Fernando Segato</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A disciplina aborda como as enzimas atuam, como se definem as estratégias de purificação e quais são as principais aplicações tecnológicas das enzimas. Dentro dos processos de purificação, o foco envolve a definição de estratégias apropriadas para a purificação em etapas sequenciais, os métodos de controle de cada etapa, além dos métodos de monitoramento da atividade enzimática. Também se aborda a aplicação das enzimas em processos industriais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Origem celular das enzimas: origem das enzimas, diferenciação entre enzimas intra e extracelulares, importância fisiológica e introdução ao mercado mundial de enzimas.2. Estrutura versus propriedades e mecanismos de ação das enzimas: estruturas tridimensionais e sua determinação, importância da estrutura terciária na atividade catalítica, ação catalítica de proteases, glicosidases e oxido-redutases.3. Controle operacional na purificação de enzimas: métodos de extração de enzimas, métodos de purificação preliminar, métodos de separação baseados na carga, no tamanho e na afinidade. Definição de estratégias de purificação de enzimas.4. Métodos de determinação de atividade enzimática: definição de atividade em unidades internacionais, significado da atividade enzimática, formas de quantificar e expressar e atividade enzimática. Requerimentos de um método experimental usado na determinação de atividade enzimática.5. Cinética enzimática: métodos gráficos e numéricos de determinação de velocidade inicial de reação, condições experimentais demandadas para determinar a velocidade inicial, cálculos de atividade enzimática.6. Enzimas imobilizadas: formas de imobilização e aplicações de sistemas imobilizados.7. Aplicações de enzimas na indústria: uso de enzimas em detergentes, no processamento do amido, na indústria alimentícia, na indústria têxtil, na síntese de fármacos e na indústria de celulose e papel.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,31 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas (P1 e P2).</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1x1 + P2x2)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1x1 + P2x2)/3</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>1. BON, E.S., FERRARA M.A., CORVO M.L. (Eds.) Enzimas em Biotecnologia - Produção, aplicação e mercado, Rio de Janeiro: Editora Interciêcnia, 2008.
+2. COPELAND, R.A. Enzymes: a practical introduction to structure, mechanism and data analysis, New York: Academic Press, 2000.
+3. LEHNINGER, A.L., NELSON, O.L., COX, M.M. Princípios de bioquímica, 5 ed. Porto Alegre: Artmed editora, 2011.
+4. GODFREY, T., WEST, S. (eds), Industrial Enzymology, New York: Chapman-Hall, 1996.
+5. WHITAKER, J.R. (ed.) Pinciples of Enzynmology for the Food Sciences 2nd ed., New York: Marcel Dekker Inc., 1994.
+6. TANAKA, A., TOSA, T., KOBAYASHI, T. (Eds.). Industrial Application of Immobilized Biocatalysts, New York: Marcel Dekker Inc., 1993.
+6.VOET, D., VOET, J., PRATT, C.W. Fundamentos de Bioquímica. Porto Alegre: Editora ARTMED, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -492,13 +507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -617,37 +632,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,82 +673,93 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
